--- a/config_debug/activity_030_xyxfl_config.xlsx
+++ b/config_debug/activity_030_xyxfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yxfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -232,6 +228,10 @@
   <si>
     <t>10000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>32</v>

--- a/config_debug/activity_030_xyxfl_config.xlsx
+++ b/config_debug/activity_030_xyxfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,7 +912,9 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="21">
+        <v>1000061</v>
+      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -942,7 +944,9 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="21">
+        <v>1000062</v>
+      </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
@@ -974,7 +978,9 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="21">
+        <v>1000063</v>
+      </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
@@ -1004,7 +1010,9 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="21">
+        <v>1000064</v>
+      </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -1034,7 +1042,9 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21">
+        <v>1000065</v>
+      </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
@@ -1064,7 +1074,9 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18">
+        <v>1000066</v>
+      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1107,9 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18">
+        <v>1000067</v>
+      </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>

--- a/config_debug/activity_030_xyxfl_config.xlsx
+++ b/config_debug/activity_030_xyxfl_config.xlsx
@@ -208,9 +208,6 @@
     <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
   </si>
   <si>
-    <t>水浒消消乐使用1万及以上档次，累计召唤3个英雄</t>
-  </si>
-  <si>
     <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
   </si>
   <si>
@@ -232,6 +229,10 @@
   <si>
     <t>xyxfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐使用1万及以上档次，累计出现3次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>33</v>
@@ -826,7 +827,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,7 +929,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
@@ -951,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -960,7 +961,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -985,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -994,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1017,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1026,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1049,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1058,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1081,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1090,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1114,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1123,7 +1124,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>32</v>
